--- a/TestCase_Daraz.xlsx
+++ b/TestCase_Daraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF571B1-88BB-4B2D-A4B6-26C67E5419F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA990E13-7E1D-40F5-9C7A-11062EAA92BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Maps" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="196">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -885,30 +885,6 @@
   </si>
   <si>
     <t>(0/62)*100 = 0</t>
-  </si>
-  <si>
-    <t>Defect Density</t>
-  </si>
-  <si>
-    <t>No. of Defects found / Size (No. of Requirements)</t>
-  </si>
-  <si>
-    <t>Defect Removal Efficiency (DRE)</t>
-  </si>
-  <si>
-    <t>(Fixed Defects / (Fixed Defects + Missed Defects)) * 100</t>
-  </si>
-  <si>
-    <t>Defect Leakage</t>
-  </si>
-  <si>
-    <t>(No. of Defects found in UAT/ No. of Defects found in Testing) * 100</t>
-  </si>
-  <si>
-    <t>Defect Rejection Ratio</t>
-  </si>
-  <si>
-    <t>(No. of Defects Rejected/ Total no. of Defects Raised) * 100</t>
   </si>
   <si>
     <t>Sevirity:p1</t>
@@ -11624,8 +11600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J9:J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -11777,7 +11753,7 @@
       <c r="E12" s="225"/>
       <c r="I12" s="209"/>
       <c r="J12" s="304" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K12" s="214"/>
       <c r="L12" s="214"/>
@@ -11845,10 +11821,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12131,149 +12107,21 @@
       <c r="Y10" s="248"/>
       <c r="Z10" s="248"/>
     </row>
-    <row r="11" spans="1:26" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="248"/>
-      <c r="B11" s="243">
-        <v>6</v>
-      </c>
-      <c r="C11" s="246" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="247" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="243" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="248"/>
-      <c r="G11" s="248"/>
-      <c r="H11" s="248"/>
-      <c r="I11" s="248"/>
-      <c r="J11" s="248"/>
-      <c r="K11" s="248"/>
-      <c r="L11" s="248"/>
-      <c r="M11" s="248"/>
-      <c r="N11" s="248"/>
-      <c r="O11" s="248"/>
-      <c r="P11" s="248"/>
-      <c r="Q11" s="248"/>
-      <c r="R11" s="248"/>
-      <c r="S11" s="248"/>
-      <c r="T11" s="248"/>
-      <c r="U11" s="248"/>
-      <c r="V11" s="248"/>
-      <c r="W11" s="248"/>
-      <c r="X11" s="248"/>
-      <c r="Y11" s="248"/>
-      <c r="Z11" s="248"/>
-    </row>
-    <row r="12" spans="1:26" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A12" s="248"/>
-      <c r="B12" s="243">
-        <v>7</v>
-      </c>
-      <c r="C12" s="246" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="247" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="243" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="248"/>
-      <c r="G12" s="248"/>
-      <c r="H12" s="248"/>
-      <c r="I12" s="248"/>
-      <c r="J12" s="248"/>
-      <c r="K12" s="248"/>
-      <c r="L12" s="248"/>
-      <c r="M12" s="248"/>
-      <c r="N12" s="248"/>
-      <c r="O12" s="248"/>
-      <c r="P12" s="248"/>
-      <c r="Q12" s="248"/>
-      <c r="R12" s="248"/>
-      <c r="S12" s="248"/>
-      <c r="T12" s="248"/>
-      <c r="U12" s="248"/>
-      <c r="V12" s="248"/>
-      <c r="W12" s="248"/>
-      <c r="X12" s="248"/>
-      <c r="Y12" s="248"/>
-      <c r="Z12" s="248"/>
-    </row>
-    <row r="13" spans="1:26" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A13" s="248"/>
-      <c r="B13" s="243">
-        <v>8</v>
-      </c>
-      <c r="C13" s="246" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="247" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="243" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="248"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="248"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="248"/>
-      <c r="L13" s="248"/>
-      <c r="M13" s="248"/>
-      <c r="N13" s="248"/>
-      <c r="O13" s="248"/>
-      <c r="P13" s="248"/>
-      <c r="Q13" s="248"/>
-      <c r="R13" s="248"/>
-      <c r="S13" s="248"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="248"/>
-      <c r="V13" s="248"/>
-      <c r="W13" s="248"/>
-      <c r="X13" s="248"/>
-      <c r="Y13" s="248"/>
-      <c r="Z13" s="248"/>
-    </row>
-    <row r="14" spans="1:26" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A14" s="248"/>
-      <c r="B14" s="243">
-        <v>9</v>
-      </c>
-      <c r="C14" s="246" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="247" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="243" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="248"/>
-      <c r="G14" s="248"/>
-      <c r="H14" s="248"/>
-      <c r="I14" s="248"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
-      <c r="M14" s="248"/>
-      <c r="N14" s="248"/>
-      <c r="O14" s="248"/>
-      <c r="P14" s="248"/>
-      <c r="Q14" s="248"/>
-      <c r="R14" s="248"/>
-      <c r="S14" s="248"/>
-      <c r="T14" s="248"/>
-      <c r="U14" s="248"/>
-      <c r="V14" s="248"/>
-      <c r="W14" s="248"/>
-      <c r="X14" s="248"/>
-      <c r="Y14" s="248"/>
-      <c r="Z14" s="248"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B11" s="6"/>
+      <c r="E11" s="238"/>
+    </row>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="E12" s="238"/>
+    </row>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="E13" s="238"/>
+    </row>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B14" s="6"/>
+      <c r="E14" s="238"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="B15" s="6"/>
@@ -16194,22 +16042,6 @@
     <row r="994" spans="2:5" ht="13.5" customHeight="1">
       <c r="B994" s="6"/>
       <c r="E994" s="238"/>
-    </row>
-    <row r="995" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B995" s="6"/>
-      <c r="E995" s="238"/>
-    </row>
-    <row r="996" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B996" s="6"/>
-      <c r="E996" s="238"/>
-    </row>
-    <row r="997" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B997" s="6"/>
-      <c r="E997" s="238"/>
-    </row>
-    <row r="998" spans="2:5" ht="13.5" customHeight="1">
-      <c r="B998" s="6"/>
-      <c r="E998" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="1">
